--- a/biology/Médecine/Syndrome_émergent/Syndrome_émergent.xlsx
+++ b/biology/Médecine/Syndrome_émergent/Syndrome_émergent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Syndrome_%C3%A9mergent</t>
+          <t>Syndrome_émergent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les syndromes émergents sont – à l'image des maladies émergentes – des syndromes qui semblent nouveaux, et qu'on suppose donc causés par l'évolution ou la modification d'un ou plusieurs facteurs de risque sanitaires (agent pathogène nouveau ou muté, parasite nouveau ou muté ou nouveau risque environnemental ou nouvelle exposition à ce risque.
 Les syndromes émergents semblent souvent caractérisés par un développement rapide dans l'espace et dans le temps, mais avec une prévalence variant parfois fortement géographiquement.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Syndrome_%C3%A9mergent</t>
+          <t>Syndrome_émergent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Types de syndromes émergents</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On peut en distinguer deux catégories, aux caractéristiques épidémiologiques et aux modes de traitements très différents :
 ceux qui sont dus à un pathogène unique (VIH, virus du SRAS…) ; ils sont transmissibles par contagion, on parle alors de maladie infectieuse émergente.
 des syndromes non liés à des maladies infectieuses, encore mal compris, probablement l'expression de synergies entre notre métabolisme et des produits ou polluants présents à faible dose dans l'eau, l'air, le sol, la nourriture ou les boissons, voire dans certains produits tels que shampoings, cosmétiques ou dans certains médicaments dans les cas des syndromes qui semblent induits ou co-induits par des perturbateurs endocriniens. Ces syndromes sont dans tous les cas caractérisés par des interactions plus ou moins discrètes ou évidentes avec des composants de l'environnement.
-parmi les syndromes émergents non infectieux liés à une association conjoncturelle de causes, la neuropathie qui a émergé à Cuba après la chute de l'URSS et des Pays de l'Est, est un exemple très illustratif. Ce bouleversement politique a en effet indirectement engendré des déficits d'approvisionnement à Cuba, qui se sont traduits par des déficits nutritionnels assez sévères en antioxydants (vitamine B2 et caroténoïdes principalement). De tels déficits, combinant leur effet avec les actions prooxydantes du tabagisme et du soleil, structurellement très notables à Cuba, ont abouti à la plus grande épidémie de neuropathie (lésions rétiniennes et des nerfs périphériques) du XXe siècle, qui a touché plus de 55 000 personnes[1].</t>
+parmi les syndromes émergents non infectieux liés à une association conjoncturelle de causes, la neuropathie qui a émergé à Cuba après la chute de l'URSS et des Pays de l'Est, est un exemple très illustratif. Ce bouleversement politique a en effet indirectement engendré des déficits d'approvisionnement à Cuba, qui se sont traduits par des déficits nutritionnels assez sévères en antioxydants (vitamine B2 et caroténoïdes principalement). De tels déficits, combinant leur effet avec les actions prooxydantes du tabagisme et du soleil, structurellement très notables à Cuba, ont abouti à la plus grande épidémie de neuropathie (lésions rétiniennes et des nerfs périphériques) du XXe siècle, qui a touché plus de 55 000 personnes.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syndrome_%C3%A9mergent</t>
+          <t>Syndrome_émergent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Exemples (non limitatif)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Syndrome métabolique
 Syndrome de dysgénésie testiculaire (TDS)
@@ -553,10 +569,10 @@
 Maladies auto-immunes
 certains syndromes allergiques
 syndrome d’hypersensibilité chimique multiple
-Dermatoporose (Dermatoporosis pour les anglophones, syndrome de fragilité chronique cutanée)[2]
-abcès aseptiques corticosensibles associés aux entérocolopathies inflammatoires[3]
+Dermatoporose (Dermatoporosis pour les anglophones, syndrome de fragilité chronique cutanée)
+abcès aseptiques corticosensibles associés aux entérocolopathies inflammatoires
 Syndrome induit par l'utilisation de nouveaux médicaments, avec par exemple ;
-Withdrawal emergent syndrome (WES)[4]
+Withdrawal emergent syndrome (WES)
 Neuropathie émergente cubaine à allure épidémique (voir référence n°1).</t>
         </is>
       </c>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Syndrome_%C3%A9mergent</t>
+          <t>Syndrome_émergent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Aspects épidémiologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces syndromes sont généralement encore très mal compris du point de vue de leur épidémiologie, en raison d'une origine probablement multifactorielle et de l'absence de symptômes spécifiques. 
 L'OMS et la FAO estiment que les zoonoses sont une source de maladies émergentes plus importantes que dans le passé en raison des déplacements et des échanges mondialisés et rapides qui augmentent certains risques épidémiques.
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Syndrome_%C3%A9mergent</t>
+          <t>Syndrome_émergent</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,14 +635,50 @@
           <t>Aspects éco-épidémiologiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains se demandent si certains syndromes observés dans la nature ne sont pas à rapprocher de ceux qui affectent l'Homme, ou si tout au moins ils ne pourraient pas avoir des causes communes.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Certains se demandent si certains syndromes observés dans la nature ne sont pas à rapprocher de ceux qui affectent l'Homme, ou si tout au moins ils ne pourraient pas avoir des causes communes.
 Exemples 
 Syndrome d'effondrement des colonies d'abeilles
-nombreuses anomalies génitales ou sexuelles observées dans la faune (escargots aquatiques exposés au tributylétain, coquillages, poissons, ours, alligators victimes de phénomènes de féminisations induites par des perturbateurs endocriniens)
-Géographie du risque
-Une étude publiée début 2008 par Nature s'est appuyée sur ;
+nombreuses anomalies génitales ou sexuelles observées dans la faune (escargots aquatiques exposés au tributylétain, coquillages, poissons, ours, alligators victimes de phénomènes de féminisations induites par des perturbateurs endocriniens)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syndrome_émergent</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_%C3%A9mergent</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aspects éco-épidémiologiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Géographie du risque</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude publiée début 2008 par Nature s'est appuyée sur ;
 une carte de danger ; celle des 335 foyers de maladie émergente (zoonoses uniquement) repérés de 1940 à 2005 ; Dans le monde, et du point de vue du nombre des émergences récentes, c'est en Europe, la zone allant du Kent à l'Allemagne en passant par la Belgique et le Nord de la France qui a été la plus exposée et qui constitue un Hotspot (point chaud)
 quatre cartes de risque, qui identifient des « hot-spots » (zones à haut risque);
 Ces cartes de risques sont faites à partir de l’analyse des lieux et conditions d’apparition de ces maladies, et à partir de modèles informatiques prenant en compte les corrélations observées entre apparition de maladies émergentes et :
@@ -639,31 +693,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Syndrome_%C3%A9mergent</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome_émergent</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Syndrome_%C3%A9mergent</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Causes et facteurs aggravants</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout contexte d’instabilité écologique, paysagère, environnementale ou sociale (guerre, déplacements de réfugiés, appauvrissement de populations, etc.) peut favoriser une maladie émergente ou sa diffusion.
 Les facteurs suivants semblent compter parmi les premières causes de prolifération des maladies infectieuses. 
@@ -672,45 +728,13 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Syndrome_%C3%A9mergent</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_%C3%A9mergent</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Veille</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bonne gestion de crise sanitaire implique une veille (y compris prospective) dans le domaine éco-épidémiologique et écologique et une réactivité optimale.
-Pour ce qui est de la veille spécifique reliée aux syndromes émergents, les autorités de santé animale de Belgique (CERVA / AFSCA) ont mis en place en 2009, en collaboration avec la recherche agronomique française (INRA), un système d'information épidémiologique dédié (émergences2). Ce système permet notamment d'apparenter, automatiquement et en temps réel via Internet et une procédure de classification hiérarchique, les syndromes cliniques d'origine indéterminée semblant relever d'un même processus étiologique et pouvant signer une émergence. Il s'agit, à travers émergences2, d'instituer une "veille sanitaire ouverte et interactive" aidant à la détection précoce des maladies et syndromes émergent, en vue d'optimiser leur contrôle[5].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Syndrome_%C3%A9mergent</t>
+          <t>Syndrome_émergent</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -725,10 +749,46 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Veille</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bonne gestion de crise sanitaire implique une veille (y compris prospective) dans le domaine éco-épidémiologique et écologique et une réactivité optimale.
+Pour ce qui est de la veille spécifique reliée aux syndromes émergents, les autorités de santé animale de Belgique (CERVA / AFSCA) ont mis en place en 2009, en collaboration avec la recherche agronomique française (INRA), un système d'information épidémiologique dédié (émergences2). Ce système permet notamment d'apparenter, automatiquement et en temps réel via Internet et une procédure de classification hiérarchique, les syndromes cliniques d'origine indéterminée semblant relever d'un même processus étiologique et pouvant signer une émergence. Il s'agit, à travers émergences2, d'instituer une "veille sanitaire ouverte et interactive" aidant à la détection précoce des maladies et syndromes émergent, en vue d'optimiser leur contrôle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_émergent</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_%C3%A9mergent</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Aspect éthique</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Lorsqu'il s'agit d'une maladie auparavant inconnue, mortelle et très contagieuse (ex : SRAS), les réactions individuelles et collectives habituelles peuvent ne plus être pertinentes. Les lois récentes (ou projets de loi) sur la bioéthique tentent de prendre ceci en compte (ex en France : révision de la loi sur la bioéthique a, adoptée mardi 22 janvier 2002).
 </t>
